--- a/simple.xlsx
+++ b/simple.xlsx
@@ -67,19 +67,124 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="37.400000000000006"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>[["axela"], ["BK"], ["Body"]]</t>
+          <t>Price, USD: </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Year of production: </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Model: mazda axela, JP specs</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Serie: BK serie</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Body type: sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Type of gear: automatic gearbox</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Type of engine: petrol engine</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Location: </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Price, USD: </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Year of production: </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Model: mazda axela, JP specs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Serie: BK serie</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Body type: sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Type of gear: automatic gearbox</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Type of engine: petrol engine</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Location: </t>
         </is>
       </c>
     </row>
